--- a/Testing URLs and Selectors.xlsx
+++ b/Testing URLs and Selectors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10185"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,18 +422,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="147.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
